--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Översikt ÖSTERGÖTLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>45113</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45114</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         <v>45114</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45114</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>45114</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45114</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         <v>45114</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45114</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>45114</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45116</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>45116</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>45116</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45117</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45117</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45117</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45117</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>45117</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45117</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>45117</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45117</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>45118</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>45118</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>45118</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>45118</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>45118</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>45118</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>45118</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>45118</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45119</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45119</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>45119</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45119</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45119</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45119</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45119</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45119</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45119</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45119</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45119</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45120</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45120</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45120</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45120</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45120</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45120</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45120</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45120</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45121</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45121</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45121</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45121</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>45121</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         <v>45121</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         <v>45121</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45121</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45121</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         <v>45121</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>45121</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>45122</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>45126</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45128</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45128</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45128</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>45129</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
         <v>45131</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45131</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>45131</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>45131</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45131</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45132</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45133</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>45134</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>45138</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         <v>45138</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
         <v>45138</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>45138</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
